--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>5.238192777385112</v>
+        <v>29.64526841471</v>
       </c>
       <c r="R2">
-        <v>47.14373499646601</v>
+        <v>266.80741573239</v>
       </c>
       <c r="S2">
-        <v>0.0001548416363602138</v>
+        <v>0.001124223049617743</v>
       </c>
       <c r="T2">
-        <v>0.0001548416363602138</v>
+        <v>0.001124223049617743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>3.880413689254112</v>
+        <v>18.21596574629</v>
       </c>
       <c r="R3">
-        <v>34.923723203287</v>
+        <v>163.94369171661</v>
       </c>
       <c r="S3">
-        <v>0.0001147055159926021</v>
+        <v>0.0006907951810908517</v>
       </c>
       <c r="T3">
-        <v>0.0001147055159926021</v>
+        <v>0.0006907951810908517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H4">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I4">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J4">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>1.299673614074</v>
+        <v>7.280151684650001</v>
       </c>
       <c r="R4">
-        <v>11.697062526666</v>
+        <v>65.52136516185</v>
       </c>
       <c r="S4">
-        <v>3.841851525706377E-05</v>
+        <v>0.0002760816402166835</v>
       </c>
       <c r="T4">
-        <v>3.841851525706377E-05</v>
+        <v>0.0002760816402166835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H5">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I5">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J5">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>17.287568640979</v>
+        <v>45.05306226096</v>
       </c>
       <c r="R5">
-        <v>155.588117768811</v>
+        <v>405.47756034864</v>
       </c>
       <c r="S5">
-        <v>0.0005110227001601442</v>
+        <v>0.001708525297902248</v>
       </c>
       <c r="T5">
-        <v>0.0005110227001601442</v>
+        <v>0.001708525297902248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J6">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N6">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O6">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P6">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q6">
-        <v>6208.977642766258</v>
+        <v>7485.483072516531</v>
       </c>
       <c r="R6">
-        <v>55880.79878489632</v>
+        <v>67369.34765264878</v>
       </c>
       <c r="S6">
-        <v>0.183538158901025</v>
+        <v>0.2838683222537742</v>
       </c>
       <c r="T6">
-        <v>0.183538158901025</v>
+        <v>0.2838683222537742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J7">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q7">
         <v>4599.563793314659</v>
@@ -883,10 +883,10 @@
         <v>41396.07413983193</v>
       </c>
       <c r="S7">
-        <v>0.1359636833861551</v>
+        <v>0.1744270135218523</v>
       </c>
       <c r="T7">
-        <v>0.1359636833861551</v>
+        <v>0.1744270135218523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I8">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J8">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N8">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O8">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P8">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q8">
-        <v>1540.539792181346</v>
+        <v>1838.25126622094</v>
       </c>
       <c r="R8">
-        <v>13864.85812963212</v>
+        <v>16544.26139598845</v>
       </c>
       <c r="S8">
-        <v>0.04553854973211992</v>
+        <v>0.06971110585219505</v>
       </c>
       <c r="T8">
-        <v>0.04553854973211992</v>
+        <v>0.06971110585219506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I9">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J9">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N9">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O9">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P9">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q9">
-        <v>20491.44270769059</v>
+        <v>11375.97845975679</v>
       </c>
       <c r="R9">
-        <v>184422.9843692153</v>
+        <v>102383.8061378112</v>
       </c>
       <c r="S9">
-        <v>0.6057296199442846</v>
+        <v>0.4314056805796221</v>
       </c>
       <c r="T9">
-        <v>0.6057296199442848</v>
+        <v>0.4314056805796223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H10">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N10">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O10">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P10">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q10">
-        <v>181.3589205660122</v>
+        <v>275.1891896489295</v>
       </c>
       <c r="R10">
-        <v>1632.23028509411</v>
+        <v>2476.702706840365</v>
       </c>
       <c r="S10">
-        <v>0.005360992468662399</v>
+        <v>0.01043586536917451</v>
       </c>
       <c r="T10">
-        <v>0.005360992468662401</v>
+        <v>0.01043586536917451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H11">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q11">
-        <v>134.3493200691272</v>
+        <v>169.0939944367928</v>
       </c>
       <c r="R11">
-        <v>1209.143880622145</v>
+        <v>1521.845949931135</v>
       </c>
       <c r="S11">
-        <v>0.003971382774073941</v>
+        <v>0.006412469046947457</v>
       </c>
       <c r="T11">
-        <v>0.003971382774073941</v>
+        <v>0.006412469046947457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H12">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N12">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O12">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P12">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q12">
-        <v>44.99784825679</v>
+        <v>67.57972350238612</v>
       </c>
       <c r="R12">
-        <v>404.98063431111</v>
+        <v>608.217511521475</v>
       </c>
       <c r="S12">
-        <v>0.001330142045716792</v>
+        <v>0.002562792880987299</v>
       </c>
       <c r="T12">
-        <v>0.001330142045716792</v>
+        <v>0.002562792880987299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H13">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N13">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O13">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P13">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q13">
-        <v>598.537495884965</v>
+        <v>418.2156667080266</v>
       </c>
       <c r="R13">
-        <v>5386.837462964685</v>
+        <v>3763.94100037224</v>
       </c>
       <c r="S13">
-        <v>0.01769284354823564</v>
+        <v>0.01585978867343019</v>
       </c>
       <c r="T13">
-        <v>0.01769284354823564</v>
+        <v>0.0158597886734302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H14">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N14">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O14">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P14">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q14">
-        <v>0.355862108872</v>
+        <v>11.83849731502755</v>
       </c>
       <c r="R14">
-        <v>3.202758979848</v>
+        <v>106.546475835248</v>
       </c>
       <c r="S14">
-        <v>1.051932863071219E-05</v>
+        <v>0.000448945557456574</v>
       </c>
       <c r="T14">
-        <v>1.05193286307122E-05</v>
+        <v>0.000448945557456574</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H15">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>54.332227</v>
       </c>
       <c r="O15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q15">
-        <v>0.263619965404</v>
+        <v>7.274336617950222</v>
       </c>
       <c r="R15">
-        <v>2.372579688636</v>
+        <v>65.46902956155201</v>
       </c>
       <c r="S15">
-        <v>7.792639285176363E-06</v>
+        <v>0.0002758611182795061</v>
       </c>
       <c r="T15">
-        <v>7.792639285176363E-06</v>
+        <v>0.0002758611182795061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H16">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N16">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O16">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P16">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q16">
-        <v>0.088294687272</v>
+        <v>2.907244925768889</v>
       </c>
       <c r="R16">
-        <v>0.794652185448</v>
+        <v>26.16520433192</v>
       </c>
       <c r="S16">
-        <v>2.610002044624001E-06</v>
+        <v>0.0001102500308215065</v>
       </c>
       <c r="T16">
-        <v>2.610002044624002E-06</v>
+        <v>0.0001102500308215065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H17">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N17">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O17">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P17">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q17">
-        <v>1.174449069612</v>
+        <v>17.99142275080533</v>
       </c>
       <c r="R17">
-        <v>10.570041626508</v>
+        <v>161.922804757248</v>
       </c>
       <c r="S17">
-        <v>3.471686199591024E-05</v>
+        <v>0.000682279946631756</v>
       </c>
       <c r="T17">
-        <v>3.471686199591024E-05</v>
+        <v>0.0006822799466317561</v>
       </c>
     </row>
   </sheetData>
